--- a/PortalProgramacao.Web/wwwroot/files/Planilha padrao saida portal.xlsx
+++ b/PortalProgramacao.Web/wwwroot/files/Planilha padrao saida portal.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iberdrola-my.sharepoint.com/personal/dalton_pessoa_neoenergia_com/Documents/Documentos/2022/Atividades/Portal Programacao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u355107\repo\source\PortalProgramacao\PortalProgramacao.Web\wwwroot\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{3D4CF6F7-AA6B-4AB4-9288-39A84786F3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE60EDFB-1254-456A-93E0-297664C39A65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86DDC70-E5E9-4C1E-9131-CA7FBC96C659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="3780" windowWidth="12750" windowHeight="9720" xr2:uid="{27593830-3923-4240-8E27-5F50625F6241}"/>
+    <workbookView xWindow="14640" yWindow="3705" windowWidth="12750" windowHeight="9720" xr2:uid="{27593830-3923-4240-8E27-5F50625F6241}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Atividades" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
